--- a/Financial_Analysis.xlsx
+++ b/Financial_Analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorotamisztal-poleszczuk/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michalpoleszczuk/Desktop/Financial-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22A57D9-C55C-A04B-9F19-542C7BDF9485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91DA5F5-B66B-1147-87DE-0D45883239AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29380" yWindow="520" windowWidth="32360" windowHeight="19380" xr2:uid="{921BF3CD-ECC0-E74C-A13C-4BC0B3DD32AF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{921BF3CD-ECC0-E74C-A13C-4BC0B3DD32AF}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,7 @@
     <sheet name="IS - Horizontal Analysis" sheetId="8" r:id="rId7"/>
     <sheet name="IS - Vertical Analysis" sheetId="11" r:id="rId8"/>
     <sheet name="Ratio Analysis" sheetId="12" r:id="rId9"/>
-    <sheet name="Net Working Capital " sheetId="3" r:id="rId10"/>
-    <sheet name="Notes" sheetId="2" r:id="rId11"/>
+    <sheet name="Notes" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -118,53 +117,26 @@
   <commentList>
     <comment ref="C8" authorId="0" shapeId="0" xr:uid="{4A7201D8-067A-1643-9BCE-EE01862D9D76}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     That’s yield on issued bonds</t>
-        </r>
       </text>
     </comment>
     <comment ref="C14" authorId="1" shapeId="0" xr:uid="{E581D401-CCF8-8744-9958-BB171046B8DB}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     10 year US treasury bond - Yahoo Finance</t>
-        </r>
       </text>
     </comment>
     <comment ref="C16" authorId="2" shapeId="0" xr:uid="{6DD8B20B-51A2-384F-AB30-7307ADCD3252}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Source: Kroll</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -197,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="271">
   <si>
     <t>*In (USD mn)</t>
   </si>
@@ -316,37 +288,13 @@
     <t xml:space="preserve">1. Time-horizon taken for our analysis is 5 years, MOL is a well-established, mature comp with a stable CF </t>
   </si>
   <si>
-    <t>2017-2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAGR </t>
   </si>
   <si>
     <t>Adjusted Growth Rate</t>
   </si>
   <si>
-    <t>Net Working Capital = Current Operating Assets - Current Operating Liabilities</t>
-  </si>
-  <si>
     <t>Total current assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash </t>
-  </si>
-  <si>
-    <t>TOTAL OPERATING ASSETS</t>
-  </si>
-  <si>
-    <t>Total Current Liabilities</t>
-  </si>
-  <si>
-    <t>Short term debt</t>
-  </si>
-  <si>
-    <t>TOTAL OPERATING LIABILITIES</t>
-  </si>
-  <si>
-    <t>NWC</t>
   </si>
   <si>
     <t xml:space="preserve">TERMINAL VALUE </t>
@@ -1041,9 +989,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_)\ &quot;PLN&quot;_ ;_ * \(#,##0.00\)\ &quot;PLN&quot;_ ;_ * &quot;-&quot;??_)\ &quot;PLN&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;PLN&quot;_ ;_ * \(#,##0.00\)\ &quot;PLN&quot;_ ;_ * &quot;-&quot;??_)\ &quot;PLN&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1222,29 +1170,29 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1262,15 +1210,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1284,14 +1232,10 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1309,11 +1253,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1334,41 +1273,44 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="5" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Procentowy" xfId="2" builtinId="5"/>
-    <cellStyle name="Walutowy" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1726,7 +1668,7 @@
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="89" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1802,19 +1744,19 @@
       <c r="M3" s="3">
         <v>2023</v>
       </c>
-      <c r="N3" s="53">
+      <c r="N3" s="52">
         <v>2024</v>
       </c>
-      <c r="O3" s="53">
+      <c r="O3" s="52">
         <v>2025</v>
       </c>
-      <c r="P3" s="53">
+      <c r="P3" s="52">
         <v>2026</v>
       </c>
-      <c r="Q3" s="53">
+      <c r="Q3" s="52">
         <v>2027</v>
       </c>
-      <c r="R3" s="53">
+      <c r="R3" s="52">
         <v>2028</v>
       </c>
     </row>
@@ -1843,23 +1785,23 @@
       <c r="M4" s="16">
         <v>25217</v>
       </c>
-      <c r="N4" s="93">
+      <c r="N4" s="87">
         <f>M4*(1+ 0.06)</f>
         <v>26730.02</v>
       </c>
-      <c r="O4" s="93">
+      <c r="O4" s="87">
         <f t="shared" ref="O4:R4" si="0">N4*(1+ 0.06)</f>
         <v>28333.821200000002</v>
       </c>
-      <c r="P4" s="93">
+      <c r="P4" s="87">
         <f t="shared" si="0"/>
         <v>30033.850472000006</v>
       </c>
-      <c r="Q4" s="93">
+      <c r="Q4" s="87">
         <f t="shared" si="0"/>
         <v>31835.881500320007</v>
       </c>
-      <c r="R4" s="93">
+      <c r="R4" s="87">
         <f t="shared" si="0"/>
         <v>33746.034390339206</v>
       </c>
@@ -1893,23 +1835,23 @@
         <f>(M4/L4)-1</f>
         <v>-4.2307546238274263E-2</v>
       </c>
-      <c r="N5" s="96">
+      <c r="N5" s="90">
         <f>(N4/M4)-1</f>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="O5" s="96">
+      <c r="O5" s="90">
         <f t="shared" ref="O5:R5" si="2">(O4/N4)-1</f>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="P5" s="96">
+      <c r="P5" s="90">
         <f t="shared" si="2"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="Q5" s="96">
+      <c r="Q5" s="90">
         <f t="shared" si="2"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="R5" s="96">
+      <c r="R5" s="90">
         <f t="shared" si="2"/>
         <v>6.0000000000000053E-2</v>
       </c>
@@ -1922,11 +1864,11 @@
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
       <c r="M6" s="20"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="91"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
@@ -1953,23 +1895,23 @@
       <c r="M7" s="16">
         <v>1957.4488878002289</v>
       </c>
-      <c r="N7" s="93">
+      <c r="N7" s="87">
         <f>(1+N8)*M7</f>
         <v>2097.2240346458461</v>
       </c>
-      <c r="O7" s="93">
+      <c r="O7" s="87">
         <f t="shared" ref="O7:R7" si="3">(1+O8)*N7</f>
         <v>2242.1700161531976</v>
       </c>
-      <c r="P7" s="93">
+      <c r="P7" s="87">
         <f t="shared" si="3"/>
         <v>2398.6658104460489</v>
       </c>
-      <c r="Q7" s="93">
+      <c r="Q7" s="87">
         <f t="shared" si="3"/>
         <v>2572.0194780373986</v>
       </c>
-      <c r="R7" s="93">
+      <c r="R7" s="87">
         <f t="shared" si="3"/>
         <v>2788.5756016436908</v>
       </c>
@@ -2006,23 +1948,23 @@
         <f t="shared" si="4"/>
         <v>7.7624177650007092E-2</v>
       </c>
-      <c r="N8" s="98">
+      <c r="N8" s="92">
         <f>AVERAGE(G8:M8)</f>
         <v>7.1406792645653985E-2</v>
       </c>
-      <c r="O8" s="98">
+      <c r="O8" s="92">
         <f t="shared" ref="O8:R8" si="5">AVERAGE(H8:N8)</f>
         <v>6.9113255957810996E-2</v>
       </c>
-      <c r="P8" s="98">
+      <c r="P8" s="92">
         <f t="shared" si="5"/>
         <v>6.9796577942534924E-2</v>
       </c>
-      <c r="Q8" s="98">
+      <c r="Q8" s="92">
         <f t="shared" si="5"/>
         <v>7.227087109692594E-2</v>
       </c>
-      <c r="R8" s="98">
+      <c r="R8" s="92">
         <f t="shared" si="5"/>
         <v>8.4196922090005871E-2</v>
       </c>
@@ -2035,11 +1977,11 @@
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
       <c r="M9" s="20"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="97"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
@@ -2066,23 +2008,23 @@
       <c r="M10" s="16">
         <v>345</v>
       </c>
-      <c r="N10" s="93">
+      <c r="N10" s="87">
         <f>(1+N11)*M10</f>
         <v>382.76799092025271</v>
       </c>
-      <c r="O10" s="93">
+      <c r="O10" s="87">
         <f t="shared" ref="O10:R10" si="6">(1+O11)*N10</f>
         <v>423.41302557380385</v>
       </c>
-      <c r="P10" s="93">
+      <c r="P10" s="87">
         <f t="shared" si="6"/>
         <v>469.97419886607207</v>
       </c>
-      <c r="Q10" s="93">
+      <c r="Q10" s="87">
         <f t="shared" si="6"/>
         <v>517.48687070674919</v>
       </c>
-      <c r="R10" s="93">
+      <c r="R10" s="87">
         <f t="shared" si="6"/>
         <v>593.44468816473056</v>
       </c>
@@ -2119,34 +2061,34 @@
         <f t="shared" si="7"/>
         <v>0.17624981277938206</v>
       </c>
-      <c r="N11" s="98">
+      <c r="N11" s="92">
         <f>AVERAGE(G11:M11)</f>
         <v>0.10947243745000776</v>
       </c>
-      <c r="O11" s="98">
+      <c r="O11" s="92">
         <f t="shared" ref="O11:R11" si="8">AVERAGE(H11:N11)</f>
         <v>0.10618713063187998</v>
       </c>
-      <c r="P11" s="98">
+      <c r="P11" s="92">
         <f t="shared" si="8"/>
         <v>0.10996632243226125</v>
       </c>
-      <c r="Q11" s="98">
+      <c r="Q11" s="92">
         <f t="shared" si="8"/>
         <v>0.10109634093810489</v>
       </c>
-      <c r="R11" s="98">
+      <c r="R11" s="92">
         <f t="shared" si="8"/>
         <v>0.14678211517568207</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="M12" s="2"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
@@ -2173,19 +2115,19 @@
       <c r="M13" s="3">
         <v>2023</v>
       </c>
-      <c r="N13" s="53">
+      <c r="N13" s="52">
         <v>2024</v>
       </c>
-      <c r="O13" s="53">
+      <c r="O13" s="52">
         <v>2025</v>
       </c>
-      <c r="P13" s="53">
+      <c r="P13" s="52">
         <v>2026</v>
       </c>
-      <c r="Q13" s="53">
+      <c r="Q13" s="52">
         <v>2027</v>
       </c>
-      <c r="R13" s="53">
+      <c r="R13" s="52">
         <v>2028</v>
       </c>
     </row>
@@ -2214,23 +2156,23 @@
       <c r="M14" s="16">
         <v>1336.6710801467</v>
       </c>
-      <c r="N14" s="93">
+      <c r="N14" s="87">
         <f>(1+N15)*M14</f>
         <v>1440.425730437988</v>
       </c>
-      <c r="O14" s="93">
+      <c r="O14" s="87">
         <f t="shared" ref="O14:R14" si="9">(1+O15)*N14</f>
         <v>1552.3265391456712</v>
       </c>
-      <c r="P14" s="93">
+      <c r="P14" s="87">
         <f t="shared" si="9"/>
         <v>1672.5251649125939</v>
       </c>
-      <c r="Q14" s="93">
+      <c r="Q14" s="87">
         <f t="shared" si="9"/>
         <v>1802.8101326444034</v>
       </c>
-      <c r="R14" s="93">
+      <c r="R14" s="87">
         <f t="shared" si="9"/>
         <v>1930.2609241580826</v>
       </c>
@@ -2267,23 +2209,23 @@
         <f t="shared" si="10"/>
         <v>5.3006744662200102E-2</v>
       </c>
-      <c r="N15" s="98">
+      <c r="N15" s="92">
         <f>AVERAGE(G15:M15)</f>
         <v>7.762167659069949E-2</v>
       </c>
-      <c r="O15" s="98">
+      <c r="O15" s="92">
         <f t="shared" ref="O15:R15" si="11">AVERAGE(H15:N15)</f>
         <v>7.7685927391520165E-2</v>
       </c>
-      <c r="P15" s="98">
+      <c r="P15" s="92">
         <f t="shared" si="11"/>
         <v>7.7431276690711162E-2</v>
       </c>
-      <c r="Q15" s="98">
+      <c r="Q15" s="92">
         <f t="shared" si="11"/>
         <v>7.7897164398491037E-2</v>
       </c>
-      <c r="R15" s="98">
+      <c r="R15" s="92">
         <f t="shared" si="11"/>
         <v>7.0695626347923507E-2</v>
       </c>
@@ -2296,11 +2238,11 @@
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
       <c r="M16" s="20"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="97"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="91"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
@@ -2327,23 +2269,23 @@
       <c r="M17" s="16">
         <v>-1427.83538422121</v>
       </c>
-      <c r="N17" s="93">
+      <c r="N17" s="87">
         <f>(1+N18)*M17</f>
         <v>-1312.0673818576581</v>
       </c>
-      <c r="O17" s="93">
+      <c r="O17" s="87">
         <f t="shared" ref="O17:R17" si="12">(1+O18)*N17</f>
         <v>-1203.4964512570293</v>
       </c>
-      <c r="P17" s="93">
+      <c r="P17" s="87">
         <f t="shared" si="12"/>
         <v>-1102.1941225087562</v>
       </c>
-      <c r="Q17" s="93">
+      <c r="Q17" s="87">
         <f t="shared" si="12"/>
         <v>-1013.9242603765413</v>
       </c>
-      <c r="R17" s="93">
+      <c r="R17" s="87">
         <f t="shared" si="12"/>
         <v>-937.07846173012854</v>
       </c>
@@ -2380,23 +2322,23 @@
         <f t="shared" si="13"/>
         <v>-5.6621936956069714E-2</v>
       </c>
-      <c r="N18" s="98">
+      <c r="N18" s="92">
         <f>AVERAGE(G18:M18)</f>
         <v>-8.10793762662603E-2</v>
       </c>
-      <c r="O18" s="98">
+      <c r="O18" s="92">
         <f t="shared" ref="O18:R18" si="14">AVERAGE(H18:N18)</f>
         <v>-8.2747983908350253E-2</v>
       </c>
-      <c r="P18" s="98">
+      <c r="P18" s="92">
         <f t="shared" si="14"/>
         <v>-8.4173350608940198E-2</v>
       </c>
-      <c r="Q18" s="98">
+      <c r="Q18" s="92">
         <f t="shared" si="14"/>
         <v>-8.0085585950412957E-2</v>
       </c>
-      <c r="R18" s="98">
+      <c r="R18" s="92">
         <f t="shared" si="14"/>
         <v>-7.5790472375002096E-2</v>
       </c>
@@ -2409,11 +2351,11 @@
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
       <c r="M19" s="20"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="97"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="97"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="91"/>
+      <c r="R19" s="91"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
@@ -2440,23 +2382,23 @@
       <c r="M20" s="16">
         <v>296</v>
       </c>
-      <c r="N20" s="93">
+      <c r="N20" s="87">
         <f>(1+N21)*M20</f>
         <v>290.70905613243269</v>
       </c>
-      <c r="O20" s="93">
+      <c r="O20" s="87">
         <f t="shared" ref="O20:R20" si="15">(1+O21)*N20</f>
         <v>285.53653028769281</v>
       </c>
-      <c r="P20" s="93">
+      <c r="P20" s="87">
         <f t="shared" si="15"/>
         <v>280.61090049317949</v>
       </c>
-      <c r="Q20" s="93">
+      <c r="Q20" s="87">
         <f t="shared" si="15"/>
         <v>275.11636888551715</v>
       </c>
-      <c r="R20" s="93">
+      <c r="R20" s="87">
         <f t="shared" si="15"/>
         <v>268.76141248350064</v>
       </c>
@@ -2493,34 +2435,34 @@
         <f>M20/M4</f>
         <v>1.1738113177618274E-2</v>
       </c>
-      <c r="N21" s="98">
+      <c r="N21" s="92">
         <f>AVERAGE(G21:M21)</f>
         <v>-1.7874810363403153E-2</v>
       </c>
-      <c r="O21" s="98">
+      <c r="O21" s="92">
         <f t="shared" ref="O21:R21" si="17">AVERAGE(H21:N21)</f>
         <v>-1.7792792263009234E-2</v>
       </c>
-      <c r="P21" s="98">
+      <c r="P21" s="92">
         <f t="shared" si="17"/>
         <v>-1.7250436536265724E-2</v>
       </c>
-      <c r="Q21" s="98">
+      <c r="Q21" s="92">
         <f>AVERAGE(J21:P21)</f>
         <v>-1.9580606448308235E-2</v>
       </c>
-      <c r="R21" s="98">
+      <c r="R21" s="92">
         <f t="shared" si="17"/>
         <v>-2.3099157740995541E-2</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M22" s="2"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -2797,51 +2739,51 @@
       <c r="V36" s="11"/>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="S38" s="77"/>
-      <c r="T38" s="77"/>
-      <c r="U38" s="77"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="72"/>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="S39" s="77"/>
-      <c r="T39" s="92"/>
-      <c r="U39" s="77"/>
+      <c r="S39" s="72"/>
+      <c r="T39" s="86"/>
+      <c r="U39" s="72"/>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="S40" s="77"/>
-      <c r="T40" s="92"/>
-      <c r="U40" s="77"/>
+      <c r="S40" s="72"/>
+      <c r="T40" s="86"/>
+      <c r="U40" s="72"/>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="S41" s="77"/>
-      <c r="T41" s="77"/>
-      <c r="U41" s="77"/>
+      <c r="S41" s="72"/>
+      <c r="T41" s="72"/>
+      <c r="U41" s="72"/>
     </row>
     <row r="42" spans="2:24" ht="51" x14ac:dyDescent="0.2">
-      <c r="S42" s="59" t="s">
-        <v>275</v>
+      <c r="S42" s="57" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="T43" s="62" t="s">
-        <v>276</v>
-      </c>
-      <c r="U43" s="93">
+      <c r="T43" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="U43" s="87">
         <v>2788.5756016436908</v>
       </c>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="T44" s="94" t="s">
-        <v>277</v>
-      </c>
-      <c r="U44" s="95">
+      <c r="T44" s="88" t="s">
+        <v>269</v>
+      </c>
+      <c r="U44" s="89">
         <v>6.84</v>
       </c>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="T45" s="62" t="s">
-        <v>278</v>
-      </c>
-      <c r="U45" s="93">
+      <c r="T45" s="60" t="s">
+        <v>270</v>
+      </c>
+      <c r="U45" s="87">
         <f>U43*U44</f>
         <v>19073.857115242845</v>
       </c>
@@ -2853,287 +2795,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF2075E-BB31-0740-9E2E-F4B69791BF21}">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2019</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2021</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2022</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="15">
-        <v>5177.80920808671</v>
-      </c>
-      <c r="C3" s="15">
-        <v>5678.7409323129696</v>
-      </c>
-      <c r="D3" s="15">
-        <v>5701.3264452500498</v>
-      </c>
-      <c r="E3" s="15">
-        <v>4360.3999999999996</v>
-      </c>
-      <c r="F3" s="15">
-        <v>6103.1394837430698</v>
-      </c>
-      <c r="G3" s="15">
-        <v>7616.1184463746731</v>
-      </c>
-      <c r="H3" s="15">
-        <v>7044.2423256901393</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="15">
-        <v>780.62378908121696</v>
-      </c>
-      <c r="C4" s="15">
-        <v>1365.1001419947499</v>
-      </c>
-      <c r="D4" s="15">
-        <v>1106.4265073997401</v>
-      </c>
-      <c r="E4" s="15">
-        <v>651.99310012102501</v>
-      </c>
-      <c r="F4" s="15">
-        <v>1128.1417222099501</v>
-      </c>
-      <c r="G4" s="15">
-        <v>1584.4443013442401</v>
-      </c>
-      <c r="H4" s="15">
-        <v>1192.0598033772201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="15">
-        <f>B3-B4</f>
-        <v>4397.1854190054928</v>
-      </c>
-      <c r="C5" s="15">
-        <f t="shared" ref="C5:H5" si="0">C3-C4</f>
-        <v>4313.6407903182198</v>
-      </c>
-      <c r="D5" s="15">
-        <f t="shared" si="0"/>
-        <v>4594.8999378503095</v>
-      </c>
-      <c r="E5" s="15">
-        <f t="shared" si="0"/>
-        <v>3708.4068998789744</v>
-      </c>
-      <c r="F5" s="15">
-        <f t="shared" si="0"/>
-        <v>4974.99776153312</v>
-      </c>
-      <c r="G5" s="15">
-        <f t="shared" si="0"/>
-        <v>6031.6741450304326</v>
-      </c>
-      <c r="H5" s="15">
-        <f t="shared" si="0"/>
-        <v>5852.182522312919</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="15">
-        <v>4519.6727244416998</v>
-      </c>
-      <c r="C8" s="15">
-        <v>4959.1361554710002</v>
-      </c>
-      <c r="D8" s="15">
-        <v>4966.4313381659804</v>
-      </c>
-      <c r="E8" s="15">
-        <v>4626.2</v>
-      </c>
-      <c r="F8" s="15">
-        <v>5126.2247693009203</v>
-      </c>
-      <c r="G8" s="15">
-        <v>6739.5564586749369</v>
-      </c>
-      <c r="H8" s="15">
-        <v>5318.5873073982002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="15">
-        <v>662.85829022486496</v>
-      </c>
-      <c r="C9" s="15">
-        <v>1229.42981456895</v>
-      </c>
-      <c r="D9" s="15">
-        <v>1108.16821957656</v>
-      </c>
-      <c r="E9" s="15">
-        <v>1082.1567019336901</v>
-      </c>
-      <c r="F9" s="15">
-        <v>569.87984567561102</v>
-      </c>
-      <c r="G9" s="15">
-        <v>1247.5662525314201</v>
-      </c>
-      <c r="H9" s="15">
-        <v>535.15956906535405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="15">
-        <f t="shared" ref="B10:H10" si="1">B8-B9</f>
-        <v>3856.8144342168348</v>
-      </c>
-      <c r="C10" s="15">
-        <f t="shared" si="1"/>
-        <v>3729.7063409020502</v>
-      </c>
-      <c r="D10" s="15">
-        <f t="shared" si="1"/>
-        <v>3858.2631185894206</v>
-      </c>
-      <c r="E10" s="15">
-        <f t="shared" si="1"/>
-        <v>3544.0432980663099</v>
-      </c>
-      <c r="F10" s="15">
-        <f t="shared" si="1"/>
-        <v>4556.3449236253091</v>
-      </c>
-      <c r="G10" s="15">
-        <f t="shared" si="1"/>
-        <v>5491.9902061435168</v>
-      </c>
-      <c r="H10" s="15">
-        <f t="shared" si="1"/>
-        <v>4783.4277383328463</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="15">
-        <f>B5-B10</f>
-        <v>540.37098478865801</v>
-      </c>
-      <c r="C12" s="15">
-        <f t="shared" ref="C12:H12" si="2">C5-C10</f>
-        <v>583.93444941616963</v>
-      </c>
-      <c r="D12" s="15">
-        <f t="shared" si="2"/>
-        <v>736.63681926088884</v>
-      </c>
-      <c r="E12" s="15">
-        <f t="shared" si="2"/>
-        <v>164.36360181266446</v>
-      </c>
-      <c r="F12" s="15">
-        <f t="shared" si="2"/>
-        <v>418.65283790781086</v>
-      </c>
-      <c r="G12" s="15">
-        <f t="shared" si="2"/>
-        <v>539.68393888691571</v>
-      </c>
-      <c r="H12" s="15">
-        <f t="shared" si="2"/>
-        <v>1068.7547839800727</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AF7DE3-6D3E-AD49-9417-64C97952CCE6}">
   <dimension ref="B2:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3192,32 +2858,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C25" s="9">
         <v>8.9099999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="12">
         <v>0.06</v>
@@ -3250,28 +2911,28 @@
         <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C6" s="24">
         <f>2635.89972044801+535</f>
@@ -3286,7 +2947,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C7" s="28">
         <f>C6/C18</f>
@@ -3295,7 +2956,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C8" s="25">
         <v>0.02</v>
@@ -3303,7 +2964,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C9" s="25">
         <v>0.09</v>
@@ -3322,7 +2983,7 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C12" s="28">
         <f>C11/C18</f>
@@ -3331,7 +2992,7 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C13" s="27">
         <f>C14+(C15*(C16-C14))</f>
@@ -3340,7 +3001,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C14" s="27">
         <v>4.2180000000000002E-2</v>
@@ -3348,7 +3009,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C15" s="8">
         <v>0.91</v>
@@ -3356,7 +3017,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C16" s="27">
         <v>5.5E-2</v>
@@ -3364,7 +3025,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C18" s="21">
         <f>C6+C11</f>
@@ -3412,70 +3073,70 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="2:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D5" s="8">
         <v>7.96</v>
@@ -3518,10 +3179,10 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D6">
         <v>0.14000000000000001</v>
@@ -3564,10 +3225,10 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D7">
         <v>527.71</v>
@@ -3610,10 +3271,10 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D8">
         <v>7.69</v>
@@ -3656,10 +3317,10 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D9">
         <v>15.71</v>
@@ -3702,10 +3363,10 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D10">
         <v>16.59</v>
@@ -3748,7 +3409,7 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="14" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -3776,7 +3437,7 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="14" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -3803,36 +3464,36 @@
       </c>
     </row>
     <row r="15" spans="2:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="82">
+      <c r="B15" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="77">
         <f>AVERAGE(N6:N10)</f>
         <v>0.52658223773679746</v>
       </c>
-      <c r="O15" s="82">
+      <c r="O15" s="77">
         <f t="shared" ref="O15:P15" si="7">AVERAGE(O6:O10)</f>
         <v>3.5618786842016505</v>
       </c>
-      <c r="P15" s="82">
+      <c r="P15" s="77">
         <f t="shared" si="7"/>
         <v>2.878471903683649</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -3860,7 +3521,7 @@
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="14" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -3888,7 +3549,7 @@
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -3919,21 +3580,21 @@
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="N22" s="23">
         <f>N16*J5</f>
@@ -3950,7 +3611,7 @@
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="N23" s="23">
         <f>$G$5</f>
@@ -3967,7 +3628,7 @@
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="N24" s="23">
         <f>N22-N23</f>
@@ -3984,7 +3645,7 @@
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N25" s="23">
         <f>$E$5</f>
@@ -4001,7 +3662,7 @@
     </row>
     <row r="26" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -4028,8 +3689,8 @@
       </c>
     </row>
     <row r="28" spans="2:17" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q28" s="59" t="s">
-        <v>273</v>
+      <c r="Q28" s="57" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -4042,7 +3703,7 @@
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:V27"/>
+  <dimension ref="B1:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S19" sqref="S19:U20"/>
@@ -4063,71 +3724,71 @@
   <sheetData>
     <row r="1" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.2">
       <c r="N2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="2:21" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="45" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H3" s="45"/>
       <c r="I3" s="45" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="J3" s="45" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="K3" s="45" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="L3" s="45"/>
       <c r="M3" s="45" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="N3" s="45" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="O3" s="45" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="45" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="Q3" s="45" t="s">
         <v>23</v>
       </c>
       <c r="R3" s="45"/>
       <c r="S3" s="45" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="T3" s="45" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="U3" s="45" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.2">
@@ -4135,10 +3796,10 @@
         <v>2015</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E4" s="43">
         <v>70000</v>
@@ -4197,10 +3858,10 @@
         <v>2017</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E5" s="43">
         <v>7450</v>
@@ -4259,10 +3920,10 @@
         <v>2019</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E6" s="43">
         <v>38000</v>
@@ -4318,167 +3979,165 @@
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B10" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="80">
+      <c r="B10" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="75">
         <f>MAX(S4:S6)</f>
         <v>4.2243066105585303</v>
       </c>
-      <c r="T10" s="80">
+      <c r="T10" s="75">
         <f t="shared" ref="T10:U10" si="0">MAX(T4:T6)</f>
         <v>11.374053793884483</v>
       </c>
-      <c r="U10" s="80">
+      <c r="U10" s="75">
         <f t="shared" si="0"/>
         <v>22.702174095394735</v>
       </c>
     </row>
     <row r="11" spans="2:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="85" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="87">
+      <c r="B11" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="82">
         <f>AVERAGE(S4:S6)</f>
         <v>2.281749120314327</v>
       </c>
-      <c r="T11" s="87">
+      <c r="T11" s="82">
         <f t="shared" ref="T11:U11" si="1">AVERAGE(T4:T6)</f>
         <v>7.5564847306481582</v>
       </c>
-      <c r="U11" s="87">
+      <c r="U11" s="82">
         <f t="shared" si="1"/>
         <v>-4.9641893793412812</v>
       </c>
     </row>
     <row r="12" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="84">
+      <c r="B12" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="79">
         <f>MEDIAN(S4:S6)</f>
         <v>1.3227291491564652</v>
       </c>
-      <c r="T12" s="84">
+      <c r="T12" s="79">
         <f t="shared" ref="T12:U12" si="2">MEDIAN(T4:T6)</f>
         <v>7.4399255356420957</v>
       </c>
-      <c r="U12" s="84">
+      <c r="U12" s="79">
         <f t="shared" si="2"/>
         <v>6.8445918373778767</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B13" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="80">
+      <c r="B13" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="75">
         <f>MIN(S4:S6)</f>
         <v>1.298211601227985</v>
       </c>
-      <c r="T13" s="80">
+      <c r="T13" s="75">
         <f t="shared" ref="T13:U13" si="3">MIN(T4:T6)</f>
         <v>3.8554748624178949</v>
       </c>
-      <c r="U13" s="80">
+      <c r="U13" s="75">
         <f t="shared" si="3"/>
         <v>-44.439334070796455</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="66"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="66"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
+        <v>262</v>
+      </c>
+      <c r="E16" s="72"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
       <c r="I16" s="8">
         <v>7.96</v>
       </c>
@@ -4504,123 +4163,96 @@
       <c r="Q16" s="29"/>
     </row>
     <row r="17" spans="5:22" x14ac:dyDescent="0.2">
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="66"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
     </row>
     <row r="18" spans="5:22" x14ac:dyDescent="0.2">
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="66"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
     </row>
     <row r="19" spans="5:22" x14ac:dyDescent="0.2">
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="66"/>
-      <c r="S19" s="88" t="s">
-        <v>271</v>
-      </c>
-      <c r="T19" s="88"/>
-      <c r="U19" s="88"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="S19" s="97" t="s">
+        <v>263</v>
+      </c>
+      <c r="T19" s="97"/>
+      <c r="U19" s="97"/>
     </row>
     <row r="20" spans="5:22" x14ac:dyDescent="0.2">
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="66"/>
-      <c r="S20" s="87">
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="S20" s="82">
         <f>S12*M16</f>
         <v>35499.404905061216</v>
       </c>
-      <c r="T20" s="87">
+      <c r="T20" s="82">
         <f>T12 *N16</f>
         <v>35763.722049831551</v>
       </c>
-      <c r="U20" s="87">
+      <c r="U20" s="82">
         <f>U12*O16</f>
         <v>13251.129797163569</v>
       </c>
     </row>
     <row r="21" spans="5:22" x14ac:dyDescent="0.2">
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="66"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
     </row>
     <row r="22" spans="5:22" ht="85" x14ac:dyDescent="0.2">
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="66"/>
-      <c r="V22" s="59" t="s">
-        <v>272</v>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="V22" s="57" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="5:22" x14ac:dyDescent="0.2">
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="66"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
     </row>
     <row r="24" spans="5:22" x14ac:dyDescent="0.2">
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="66"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
     </row>
     <row r="25" spans="5:22" x14ac:dyDescent="0.2">
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="66"/>
-    </row>
-    <row r="26" spans="5:22" x14ac:dyDescent="0.2">
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-    </row>
-    <row r="27" spans="5:22" x14ac:dyDescent="0.2">
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4639,7 +4271,7 @@
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:J57"/>
+  <dimension ref="B1:J57"/>
   <sheetViews>
     <sheetView zoomScale="110" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -4647,72 +4279,59 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="66" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="2" max="2" width="46.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="58.6640625" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66"/>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="66"/>
-    </row>
-    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
-    </row>
-    <row r="6" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" s="65" t="s">
-        <v>172</v>
-      </c>
-      <c r="F6" s="65" t="s">
-        <v>174</v>
-      </c>
-      <c r="G6" s="65" t="s">
-        <v>175</v>
+      <c r="D6" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="63" t="s">
+        <v>167</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="66"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D8" s="21">
         <v>11539.663605216199</v>
@@ -4729,10 +4348,9 @@
         <v>0.13550501164155218</v>
       </c>
     </row>
-    <row r="9" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D9" s="21">
         <v>46.065077620944798</v>
@@ -4749,10 +4367,9 @@
         <v>0.82958512995641021</v>
       </c>
     </row>
-    <row r="10" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="66"/>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D10" s="21">
         <v>1517.0557798868726</v>
@@ -4769,10 +4386,9 @@
         <v>3.1378416229408179E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="66"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D11" s="21">
         <v>589.38528461494104</v>
@@ -4789,10 +4405,9 @@
         <v>0.16045236152598039</v>
       </c>
     </row>
-    <row r="12" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="66"/>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D12" s="21">
         <v>900.83179935056103</v>
@@ -4809,10 +4424,9 @@
         <v>-5.4841061755761195E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="66"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D13" s="21">
         <v>390.03245995554897</v>
@@ -4829,10 +4443,9 @@
         <v>0.33328582005350216</v>
       </c>
     </row>
-    <row r="14" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="66"/>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D14" s="21">
         <v>207.814774237964</v>
@@ -4849,10 +4462,9 @@
         <v>-8.3435674655982561E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
+    <row r="15" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D15" s="29">
         <v>15190.84878088303</v>
@@ -4869,21 +4481,21 @@
         <v>0.11758054994913922</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="73" t="s">
-        <v>227</v>
+    <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="68" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -4892,7 +4504,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D18" s="21">
         <v>2397.4512502514176</v>
@@ -4911,7 +4523,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D19" s="21">
         <v>2768.39235136243</v>
@@ -4930,7 +4542,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D20" s="21">
         <v>10.8631361361273</v>
@@ -4949,7 +4561,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D21" s="21">
         <v>186.590875865946</v>
@@ -4968,7 +4580,7 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D22" s="21">
         <v>72.732350098141296</v>
@@ -4987,7 +4599,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D23" s="21">
         <v>1192.0598033772201</v>
@@ -5006,7 +4618,7 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D24" s="21">
         <v>387.94514285587002</v>
@@ -5025,7 +4637,7 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D25" s="21">
         <v>28.207415742985901</v>
@@ -5042,11 +4654,10 @@
         <v>-0.75562195043657321</v>
       </c>
     </row>
-    <row r="26" spans="2:9" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="1"/>
+        <v>41</v>
+      </c>
       <c r="D26" s="29">
         <v>7044.2423256901393</v>
       </c>
@@ -5061,8 +4672,6 @@
         <f t="shared" si="1"/>
         <v>-7.5087608564799957E-2</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D27" s="21"/>
@@ -5070,67 +4679,65 @@
       <c r="F27" s="21"/>
       <c r="G27" s="47"/>
     </row>
-    <row r="28" spans="2:9" s="67" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="54">
+    <row r="28" spans="2:9" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="53">
         <v>22235.091106573171</v>
       </c>
-      <c r="E28" s="54">
+      <c r="E28" s="53">
         <v>21208.739382354957</v>
       </c>
-      <c r="F28" s="54">
+      <c r="F28" s="53">
         <f t="shared" si="0"/>
         <v>1026.3517242182133</v>
       </c>
-      <c r="G28" s="55">
+      <c r="G28" s="54">
         <f t="shared" si="1"/>
         <v>4.8392867945376686E-2</v>
       </c>
-      <c r="H28" s="53"/>
-      <c r="I28" s="73" t="s">
-        <v>232</v>
+      <c r="H28" s="52"/>
+      <c r="I28" s="68" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="73" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="68" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="1"/>
+        <v>138</v>
+      </c>
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
       <c r="G30" s="48"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="74"/>
+      <c r="I30" s="69"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="47"/>
-      <c r="I31" s="74"/>
+      <c r="I31" s="69"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D32" s="21">
         <v>228.58886463456699</v>
@@ -5146,11 +4753,11 @@
         <f t="shared" si="1"/>
         <v>8.6856777443385713E-2</v>
       </c>
-      <c r="I32" s="74"/>
+      <c r="I32" s="69"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D33" s="21">
         <v>9316.2706982767504</v>
@@ -5166,11 +4773,11 @@
         <f t="shared" si="1"/>
         <v>0.29500565725281491</v>
       </c>
-      <c r="I33" s="74"/>
+      <c r="I33" s="69"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D34" s="21">
         <v>1529.6098198764801</v>
@@ -5186,11 +4793,11 @@
         <f t="shared" si="1"/>
         <v>-0.32527136308933391</v>
       </c>
-      <c r="I34" s="74"/>
+      <c r="I34" s="69"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D35" s="21">
         <v>11075.469382787798</v>
@@ -5198,19 +4805,19 @@
       <c r="E35" s="21">
         <v>9671.4384024491483</v>
       </c>
-      <c r="F35" s="51">
+      <c r="F35" s="21">
         <f t="shared" si="0"/>
         <v>1404.0309803386499</v>
       </c>
-      <c r="G35" s="52">
+      <c r="G35" s="51">
         <f t="shared" si="1"/>
         <v>0.14517292277672986</v>
       </c>
-      <c r="I35" s="74"/>
+      <c r="I35" s="69"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D36" s="21">
         <v>1041.0827425672501</v>
@@ -5226,13 +4833,12 @@
         <f t="shared" si="1"/>
         <v>3.1566205993561629E-2</v>
       </c>
-      <c r="I36" s="74"/>
-    </row>
-    <row r="37" spans="2:9" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I36" s="69"/>
+    </row>
+    <row r="37" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C37" s="1"/>
+        <v>145</v>
+      </c>
       <c r="D37" s="29">
         <v>12115.552125355</v>
       </c>
@@ -5247,29 +4853,28 @@
         <f t="shared" si="1"/>
         <v>0.13445071223031901</v>
       </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="74"/>
+      <c r="I37" s="69"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="47"/>
-      <c r="I38" s="74"/>
+      <c r="I38" s="69"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="47"/>
-      <c r="I39" s="74"/>
+      <c r="I39" s="69"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D40" s="21">
         <v>2635.8997204480102</v>
@@ -5285,11 +4890,11 @@
         <f t="shared" si="1"/>
         <v>0.52250241107848272</v>
       </c>
-      <c r="I40" s="74"/>
+      <c r="I40" s="69"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D41" s="21">
         <v>14.8429395450874</v>
@@ -5305,11 +4910,11 @@
         <f t="shared" si="1"/>
         <v>-0.73023685222021961</v>
       </c>
-      <c r="I41" s="74"/>
+      <c r="I41" s="69"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D42" s="21">
         <v>1608.40392942214</v>
@@ -5325,11 +4930,11 @@
         <f t="shared" si="1"/>
         <v>3.3875357395037456E-2</v>
       </c>
-      <c r="I42" s="74"/>
+      <c r="I42" s="69"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D43" s="21">
         <v>424.508463182659</v>
@@ -5345,11 +4950,11 @@
         <f t="shared" si="1"/>
         <v>0.2412589144951178</v>
       </c>
-      <c r="I43" s="74"/>
+      <c r="I43" s="69"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D44" s="21">
         <v>116.29671497229</v>
@@ -5365,13 +4970,12 @@
         <f t="shared" si="1"/>
         <v>0.11288124139766532</v>
       </c>
-      <c r="I44" s="74"/>
-    </row>
-    <row r="45" spans="2:9" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I44" s="69"/>
+    </row>
+    <row r="45" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C45" s="1"/>
+        <v>152</v>
+      </c>
       <c r="D45" s="29">
         <v>4799.95176757019</v>
       </c>
@@ -5386,29 +4990,28 @@
         <f t="shared" si="1"/>
         <v>0.26697306579306257</v>
       </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="74"/>
+      <c r="I45" s="69"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
       <c r="G46" s="47"/>
-      <c r="I46" s="74"/>
+      <c r="I46" s="69"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
       <c r="G47" s="47"/>
-      <c r="I47" s="74"/>
+      <c r="I47" s="69"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D48" s="21">
         <v>535.15956906535405</v>
@@ -5424,11 +5027,11 @@
         <f t="shared" si="1"/>
         <v>-0.57103715495712637</v>
       </c>
-      <c r="I48" s="74"/>
+      <c r="I48" s="69"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D49" s="21">
         <v>2776.7152531751599</v>
@@ -5444,11 +5047,11 @@
         <f t="shared" si="1"/>
         <v>4.1454877274032693E-2</v>
       </c>
-      <c r="I49" s="74"/>
+      <c r="I49" s="69"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D50" s="21">
         <v>591.49185364277002</v>
@@ -5464,11 +5067,11 @@
         <f t="shared" si="1"/>
         <v>-3.9929636139628313E-2</v>
       </c>
-      <c r="I50" s="74"/>
+      <c r="I50" s="69"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D51" s="21">
         <v>331.220927436208</v>
@@ -5484,11 +5087,11 @@
         <f t="shared" si="1"/>
         <v>8.2019652601447307E-2</v>
       </c>
-      <c r="I51" s="74"/>
+      <c r="I51" s="69"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D52" s="21">
         <v>175.59197002366801</v>
@@ -5504,11 +5107,11 @@
         <f t="shared" si="1"/>
         <v>-0.81800669400073056</v>
       </c>
-      <c r="I52" s="74"/>
+      <c r="I52" s="69"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D53" s="21">
         <v>5.9999999999999997E-15</v>
@@ -5524,11 +5127,11 @@
         <f t="shared" si="1"/>
         <v>-0.99999999999999889</v>
       </c>
-      <c r="I53" s="74"/>
+      <c r="I53" s="69"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D54" s="21">
         <v>909.40773405503796</v>
@@ -5544,13 +5147,12 @@
         <f t="shared" si="1"/>
         <v>-2.5303450686107225E-2</v>
       </c>
-      <c r="I54" s="74"/>
-    </row>
-    <row r="55" spans="2:9" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I54" s="69"/>
+    </row>
+    <row r="55" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C55" s="1"/>
+        <v>161</v>
+      </c>
       <c r="D55" s="29">
         <v>5318.5873073982002</v>
       </c>
@@ -5565,43 +5167,42 @@
         <f t="shared" si="1"/>
         <v>-0.21084015839762149</v>
       </c>
-      <c r="H55" s="1"/>
-      <c r="I55" s="74"/>
+      <c r="I55" s="69"/>
     </row>
     <row r="56" spans="2:9" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="73" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="C57" s="53"/>
-      <c r="D57" s="54">
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="68" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" s="52"/>
+      <c r="D57" s="53">
         <v>22235.091200323401</v>
       </c>
-      <c r="E57" s="54">
+      <c r="E57" s="53">
         <v>21208.739374832599</v>
       </c>
-      <c r="F57" s="54">
+      <c r="F57" s="53">
         <f t="shared" si="0"/>
         <v>1026.3518254908013</v>
       </c>
-      <c r="G57" s="55">
+      <c r="G57" s="54">
         <f t="shared" si="1"/>
         <v>4.8392872737581194E-2</v>
       </c>
-      <c r="H57" s="53"/>
-      <c r="I57" s="75" t="s">
-        <v>235</v>
+      <c r="H57" s="52"/>
+      <c r="I57" s="70" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5622,121 +5223,86 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="66" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="2" max="2" width="46.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.83203125" customWidth="1"/>
     <col min="6" max="6" width="3.83203125" customWidth="1"/>
     <col min="10" max="10" width="100" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-    </row>
-    <row r="2" spans="1:22" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-    </row>
-    <row r="3" spans="1:22" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-    </row>
-    <row r="4" spans="1:22" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:22" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-    </row>
-    <row r="6" spans="1:22" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
-      <c r="B6" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="68" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" s="68" t="s">
-        <v>172</v>
-      </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="68" t="s">
-        <v>171</v>
-      </c>
-      <c r="H6" s="68" t="s">
-        <v>172</v>
-      </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65" t="s">
-        <v>212</v>
-      </c>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-    </row>
-    <row r="7" spans="1:22" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4"/>
+      <c r="B4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4"/>
+      <c r="F4"/>
+    </row>
+    <row r="6" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6"/>
+      <c r="B6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
       <c r="F7" s="1"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-    </row>
-    <row r="8" spans="1:22" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8"/>
+        <v>120</v>
+      </c>
       <c r="D8" s="49">
         <v>11539.663605216199</v>
       </c>
       <c r="E8" s="49">
         <v>10162.582715979201</v>
       </c>
-      <c r="F8"/>
       <c r="G8" s="50">
         <f>D8/D$28</f>
         <v>0.51898431852185334</v>
@@ -5745,21 +5311,17 @@
         <f t="shared" ref="H8:H28" si="0">E8/E$28</f>
         <v>0.47916957876497684</v>
       </c>
-      <c r="I8"/>
-      <c r="J8"/>
-    </row>
-    <row r="9" spans="1:22" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9"/>
+        <v>121</v>
+      </c>
       <c r="D9" s="21">
         <v>46.065077620944798</v>
       </c>
       <c r="E9" s="21">
         <v>25.177881513522301</v>
       </c>
-      <c r="F9"/>
       <c r="G9" s="47">
         <f t="shared" ref="G9:G28" si="1">D9/D$28</f>
         <v>2.0717287552434165E-3</v>
@@ -5768,12 +5330,10 @@
         <f t="shared" si="0"/>
         <v>1.1871465370765766E-3</v>
       </c>
-      <c r="I9"/>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="1:22" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="21">
@@ -5791,21 +5351,17 @@
         <f t="shared" si="0"/>
         <v>6.9353543479252058E-2</v>
       </c>
-      <c r="I10"/>
-      <c r="J10"/>
-    </row>
-    <row r="11" spans="1:22" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11"/>
+        <v>123</v>
+      </c>
       <c r="D11" s="21">
         <v>589.38528461494104</v>
       </c>
       <c r="E11" s="21">
         <v>507.89270129099202</v>
       </c>
-      <c r="F11"/>
       <c r="G11" s="47">
         <f t="shared" si="1"/>
         <v>2.650698761655652E-2</v>
@@ -5814,21 +5370,17 @@
         <f t="shared" si="0"/>
         <v>2.3947330962704162E-2</v>
       </c>
-      <c r="I11"/>
-      <c r="J11"/>
-    </row>
-    <row r="12" spans="1:22" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12"/>
+        <v>124</v>
+      </c>
       <c r="D12" s="21">
         <v>900.83179935056103</v>
       </c>
       <c r="E12" s="21">
         <v>905.79929887937794</v>
       </c>
-      <c r="F12"/>
       <c r="G12" s="47">
         <f t="shared" si="1"/>
         <v>4.0513969339404043E-2</v>
@@ -5837,21 +5389,17 @@
         <f t="shared" si="0"/>
         <v>4.2708775969635238E-2</v>
       </c>
-      <c r="I12"/>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="1:22" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13"/>
+        <v>125</v>
+      </c>
       <c r="D13" s="21">
         <v>390.03245995554897</v>
       </c>
       <c r="E13" s="21">
         <v>292.53476943143198</v>
       </c>
-      <c r="F13"/>
       <c r="G13" s="47">
         <f t="shared" si="1"/>
         <v>1.7541302533284741E-2</v>
@@ -5860,22 +5408,18 @@
         <f t="shared" si="0"/>
         <v>1.379312387019156E-2</v>
       </c>
-      <c r="I13"/>
-      <c r="J13"/>
-    </row>
-    <row r="14" spans="1:22" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="67"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14"/>
+        <v>126</v>
+      </c>
       <c r="D14" s="21">
         <v>207.814774237964</v>
       </c>
       <c r="E14" s="21">
         <v>226.732339991483</v>
       </c>
-      <c r="F14"/>
       <c r="G14" s="47">
         <f t="shared" si="1"/>
         <v>9.3462524278359934E-3</v>
@@ -5884,21 +5428,17 @@
         <f t="shared" si="0"/>
         <v>1.0690514693207913E-2</v>
       </c>
-      <c r="I14"/>
-      <c r="J14"/>
-    </row>
-    <row r="15" spans="1:22" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>127</v>
+      </c>
       <c r="D15" s="29">
         <v>15190.84878088303</v>
       </c>
       <c r="E15" s="29">
         <v>13592.620935980285</v>
       </c>
-      <c r="F15" s="1"/>
       <c r="G15" s="48">
         <f t="shared" si="1"/>
         <v>0.68319255846864013</v>
@@ -5907,47 +5447,39 @@
         <f t="shared" si="0"/>
         <v>0.64089716465132962</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" s="66" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="63" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="61" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17"/>
+        <v>128</v>
+      </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
-      <c r="F17"/>
       <c r="G17" s="47"/>
       <c r="H17" s="47"/>
-      <c r="I17"/>
-      <c r="J17"/>
-    </row>
-    <row r="18" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18"/>
+        <v>129</v>
+      </c>
       <c r="D18" s="21">
         <v>2397.4512502514176</v>
       </c>
       <c r="E18" s="21">
         <v>2653.9732441839101</v>
       </c>
-      <c r="F18"/>
       <c r="G18" s="47">
         <f t="shared" si="1"/>
         <v>0.10782286606159575</v>
@@ -5956,21 +5488,17 @@
         <f t="shared" si="0"/>
         <v>0.12513583180676627</v>
       </c>
-      <c r="I18"/>
-      <c r="J18"/>
-    </row>
-    <row r="19" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19"/>
+        <v>130</v>
+      </c>
       <c r="D19" s="21">
         <v>2768.39235136243</v>
       </c>
       <c r="E19" s="21">
         <v>2479.5324430792498</v>
       </c>
-      <c r="F19"/>
       <c r="G19" s="47">
         <f t="shared" si="1"/>
         <v>0.12450555467002489</v>
@@ -5979,12 +5507,10 @@
         <f t="shared" si="0"/>
         <v>0.11691088274403275</v>
       </c>
-      <c r="I19"/>
-      <c r="J19"/>
-    </row>
-    <row r="20" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="21">
@@ -6002,12 +5528,10 @@
         <f t="shared" si="0"/>
         <v>9.1561800874446217E-4</v>
       </c>
-      <c r="I20"/>
-      <c r="J20"/>
-    </row>
-    <row r="21" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="21">
@@ -6025,21 +5549,17 @@
         <f t="shared" si="0"/>
         <v>2.2335578202759859E-2</v>
       </c>
-      <c r="I21"/>
-      <c r="J21"/>
-    </row>
-    <row r="22" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22"/>
+        <v>133</v>
+      </c>
       <c r="D22" s="21">
         <v>72.732350098141296</v>
       </c>
       <c r="E22" s="21">
         <v>32.579100162372299</v>
       </c>
-      <c r="F22"/>
       <c r="G22" s="47">
         <f t="shared" si="1"/>
         <v>3.271061483379308E-3</v>
@@ -6048,21 +5568,17 @@
         <f t="shared" si="0"/>
         <v>1.5361167665380972E-3</v>
       </c>
-      <c r="I22"/>
-      <c r="J22"/>
-    </row>
-    <row r="23" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23"/>
+        <v>134</v>
+      </c>
       <c r="D23" s="49">
         <v>1192.0598033772201</v>
       </c>
       <c r="E23" s="49">
         <v>1584.4443013442401</v>
       </c>
-      <c r="F23"/>
       <c r="G23" s="50">
         <f t="shared" si="1"/>
         <v>5.3611644659500475E-2</v>
@@ -6071,21 +5587,17 @@
         <f t="shared" si="0"/>
         <v>7.470714184278443E-2</v>
       </c>
-      <c r="I23"/>
-      <c r="J23"/>
-    </row>
-    <row r="24" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24"/>
+        <v>135</v>
+      </c>
       <c r="D24" s="21">
         <v>387.94514285587002</v>
       </c>
       <c r="E24" s="21">
         <v>257.03547203473101</v>
       </c>
-      <c r="F24"/>
       <c r="G24" s="47">
         <f t="shared" si="1"/>
         <v>1.7447427626738399E-2</v>
@@ -6094,22 +5606,18 @@
         <f t="shared" si="0"/>
         <v>1.2119318711067613E-2</v>
       </c>
-      <c r="I24"/>
-      <c r="J24"/>
-    </row>
-    <row r="25" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="67"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
       <c r="B25" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25"/>
+        <v>136</v>
+      </c>
       <c r="D25" s="21">
         <v>28.207415742985901</v>
       </c>
       <c r="E25" s="21">
         <v>115.425324792376</v>
       </c>
-      <c r="F25"/>
       <c r="G25" s="47">
         <f t="shared" si="1"/>
         <v>1.2685990629760534E-3</v>
@@ -6118,21 +5626,17 @@
         <f t="shared" si="0"/>
         <v>5.4423472659768952E-3</v>
       </c>
-      <c r="I25"/>
-      <c r="J25"/>
-    </row>
-    <row r="26" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="1"/>
+        <v>41</v>
+      </c>
       <c r="D26" s="29">
         <v>7044.2423256901393</v>
       </c>
       <c r="E26" s="29">
         <v>7616.1184463746731</v>
       </c>
-      <c r="F26" s="1"/>
       <c r="G26" s="48">
         <f t="shared" si="1"/>
         <v>0.31680744153135987</v>
@@ -6141,33 +5645,24 @@
         <f t="shared" si="0"/>
         <v>0.35910283534867038</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="67"/>
-      <c r="B27"/>
-      <c r="C27"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
-      <c r="F27"/>
       <c r="G27" s="47"/>
       <c r="H27" s="47"/>
-      <c r="I27"/>
-      <c r="J27"/>
-    </row>
-    <row r="28" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>137</v>
+      </c>
       <c r="D28" s="29">
         <v>22235.091106573171</v>
       </c>
       <c r="E28" s="29">
         <v>21208.739382354957</v>
       </c>
-      <c r="F28" s="1"/>
       <c r="G28" s="48">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -6176,51 +5671,37 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" s="66" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="72" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="67" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="1"/>
+        <v>138</v>
+      </c>
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31"/>
+        <v>139</v>
+      </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-    </row>
-    <row r="32" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="21">
@@ -6238,21 +5719,17 @@
         <f t="shared" ref="H32:H57" si="2">E32/E$57</f>
         <v>9.9167164915467815E-3</v>
       </c>
-      <c r="I32"/>
-      <c r="J32"/>
-    </row>
-    <row r="33" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33"/>
+        <v>141</v>
+      </c>
       <c r="D33" s="49">
         <v>9316.2706982767504</v>
       </c>
       <c r="E33" s="49">
         <v>7194</v>
       </c>
-      <c r="F33"/>
       <c r="G33" s="47">
         <f t="shared" ref="G33:G57" si="3">D33/D$57</f>
         <v>0.4189895428961069</v>
@@ -6261,12 +5738,10 @@
         <f t="shared" si="2"/>
         <v>0.33919979272963185</v>
       </c>
-      <c r="I33"/>
-      <c r="J33"/>
-    </row>
-    <row r="34" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="21">
@@ -6284,21 +5759,17 @@
         <f t="shared" si="2"/>
         <v>0.10688989854296295</v>
       </c>
-      <c r="I34"/>
-      <c r="J34"/>
-    </row>
-    <row r="35" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35"/>
+        <v>143</v>
+      </c>
       <c r="D35" s="21">
         <v>11075.469382787798</v>
       </c>
       <c r="E35" s="21">
         <v>9671.4384024491483</v>
       </c>
-      <c r="F35"/>
       <c r="G35" s="47">
         <f t="shared" si="3"/>
         <v>0.49810766607634649</v>
@@ -6307,13 +5778,11 @@
         <f t="shared" si="2"/>
         <v>0.45601194071561763</v>
       </c>
-      <c r="I35"/>
-      <c r="J35"/>
-    </row>
-    <row r="36" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="67"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="21">
@@ -6331,21 +5800,17 @@
         <f t="shared" si="2"/>
         <v>4.7585351969019411E-2</v>
       </c>
-      <c r="I36"/>
-      <c r="J36"/>
-    </row>
-    <row r="37" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C37" s="1"/>
+        <v>145</v>
+      </c>
       <c r="D37" s="29">
         <v>12115.552125355</v>
       </c>
       <c r="E37" s="29">
         <v>10679.663730419757</v>
       </c>
-      <c r="F37" s="1"/>
       <c r="G37" s="48">
         <f t="shared" si="3"/>
         <v>0.5448843009548251</v>
@@ -6354,47 +5819,39 @@
         <f t="shared" si="2"/>
         <v>0.50355014231033479</v>
       </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" s="66" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="72" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="67" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39"/>
+        <v>146</v>
+      </c>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
-      <c r="F39"/>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
-      <c r="I39"/>
-      <c r="J39"/>
-    </row>
-    <row r="40" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40"/>
+        <v>147</v>
+      </c>
       <c r="D40" s="49">
         <v>2635.8997204480102</v>
       </c>
       <c r="E40" s="49">
         <v>1731.29428319318</v>
       </c>
-      <c r="F40"/>
       <c r="G40" s="47">
         <f t="shared" si="3"/>
         <v>0.11854683647124739</v>
@@ -6403,21 +5860,17 @@
         <f t="shared" si="2"/>
         <v>8.1631173479722444E-2</v>
       </c>
-      <c r="I40"/>
-      <c r="J40"/>
-    </row>
-    <row r="41" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41"/>
+        <v>148</v>
+      </c>
       <c r="D41" s="21">
         <v>14.8429395450874</v>
       </c>
       <c r="E41" s="21">
         <v>55.022117243398803</v>
       </c>
-      <c r="F41"/>
       <c r="G41" s="47">
         <f t="shared" si="3"/>
         <v>6.6754570113350896E-4</v>
@@ -6426,21 +5879,17 @@
         <f t="shared" si="2"/>
         <v>2.5943134229227658E-3</v>
       </c>
-      <c r="I41"/>
-      <c r="J41"/>
-    </row>
-    <row r="42" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42"/>
+        <v>149</v>
+      </c>
       <c r="D42" s="21">
         <v>1608.40392942214</v>
       </c>
       <c r="E42" s="21">
         <v>1555.7039036839899</v>
       </c>
-      <c r="F42"/>
       <c r="G42" s="47">
         <f t="shared" si="3"/>
         <v>7.2336286590034146E-2</v>
@@ -6449,21 +5898,17 @@
         <f t="shared" si="2"/>
         <v>7.3352021362008413E-2</v>
       </c>
-      <c r="I42"/>
-      <c r="J42"/>
-    </row>
-    <row r="43" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>158</v>
-      </c>
-      <c r="C43"/>
+        <v>150</v>
+      </c>
       <c r="D43" s="21">
         <v>424.508463182659</v>
       </c>
       <c r="E43" s="21">
         <v>341.99831979078101</v>
       </c>
-      <c r="F43"/>
       <c r="G43" s="47">
         <f t="shared" si="3"/>
         <v>1.9091824690896014E-2</v>
@@ -6472,22 +5917,18 @@
         <f t="shared" si="2"/>
         <v>1.6125348788840043E-2</v>
       </c>
-      <c r="I43"/>
-      <c r="J43"/>
-    </row>
-    <row r="44" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="67"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
       <c r="B44" t="s">
-        <v>159</v>
-      </c>
-      <c r="C44"/>
+        <v>151</v>
+      </c>
       <c r="D44" s="21">
         <v>116.29671497229</v>
       </c>
       <c r="E44" s="21">
         <v>104.500561826555</v>
       </c>
-      <c r="F44"/>
       <c r="G44" s="47">
         <f t="shared" si="3"/>
         <v>5.2303232725485075E-3</v>
@@ -6496,21 +5937,17 @@
         <f t="shared" si="2"/>
         <v>4.9272406049065244E-3</v>
       </c>
-      <c r="I44"/>
-      <c r="J44"/>
-    </row>
-    <row r="45" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C45" s="1"/>
+        <v>152</v>
+      </c>
       <c r="D45" s="29">
         <v>4799.95176757019</v>
       </c>
       <c r="E45" s="29">
         <v>3788.5191857379045</v>
       </c>
-      <c r="F45" s="1"/>
       <c r="G45" s="48">
         <f t="shared" si="3"/>
         <v>0.21587281672585973</v>
@@ -6519,47 +5956,39 @@
         <f t="shared" si="2"/>
         <v>0.17863009765840018</v>
       </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" s="66" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="72" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="67" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47"/>
+        <v>153</v>
+      </c>
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
-      <c r="F47"/>
       <c r="G47" s="47"/>
       <c r="H47" s="47"/>
-      <c r="I47"/>
-      <c r="J47"/>
-    </row>
-    <row r="48" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>162</v>
-      </c>
-      <c r="C48"/>
+        <v>154</v>
+      </c>
       <c r="D48" s="21">
         <v>535.15956906535405</v>
       </c>
       <c r="E48" s="21">
         <v>1247.5662525314201</v>
       </c>
-      <c r="F48"/>
       <c r="G48" s="50">
         <f t="shared" si="3"/>
         <v>2.4068242592032649E-2</v>
@@ -6568,21 +5997,17 @@
         <f t="shared" si="2"/>
         <v>5.8823215773580941E-2</v>
       </c>
-      <c r="I48"/>
-      <c r="J48"/>
-    </row>
-    <row r="49" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>163</v>
-      </c>
-      <c r="C49"/>
+        <v>155</v>
+      </c>
       <c r="D49" s="21">
         <v>2776.7152531751599</v>
       </c>
       <c r="E49" s="21">
         <v>2666.1887267195898</v>
       </c>
-      <c r="F49"/>
       <c r="G49" s="47">
         <f t="shared" si="3"/>
         <v>0.1248798679600097</v>
@@ -6591,21 +6016,17 @@
         <f t="shared" si="2"/>
         <v>0.12571179642498831</v>
       </c>
-      <c r="I49"/>
-      <c r="J49"/>
-    </row>
-    <row r="50" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>164</v>
-      </c>
-      <c r="C50"/>
+        <v>156</v>
+      </c>
       <c r="D50" s="21">
         <v>591.49185364277002</v>
       </c>
       <c r="E50" s="21">
         <v>616.09219064363697</v>
       </c>
-      <c r="F50"/>
       <c r="G50" s="47">
         <f t="shared" si="3"/>
         <v>2.6601728246303167E-2</v>
@@ -6614,21 +6035,17 @@
         <f t="shared" si="2"/>
         <v>2.9048977393476023E-2</v>
       </c>
-      <c r="I50"/>
-      <c r="J50"/>
-    </row>
-    <row r="51" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>165</v>
-      </c>
-      <c r="C51"/>
+        <v>157</v>
+      </c>
       <c r="D51" s="21">
         <v>331.220927436208</v>
       </c>
       <c r="E51" s="21">
         <v>306.11359658752002</v>
       </c>
-      <c r="F51"/>
       <c r="G51" s="47">
         <f t="shared" si="3"/>
         <v>1.4896315218684173E-2</v>
@@ -6637,21 +6054,17 @@
         <f t="shared" si="2"/>
         <v>1.4433370658077416E-2</v>
       </c>
-      <c r="I51"/>
-      <c r="J51"/>
-    </row>
-    <row r="52" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>166</v>
-      </c>
-      <c r="C52"/>
+        <v>158</v>
+      </c>
       <c r="D52" s="21">
         <v>175.59197002366801</v>
       </c>
       <c r="E52" s="21">
         <v>964.8265306218068</v>
       </c>
-      <c r="F52"/>
       <c r="G52" s="47">
         <f t="shared" si="3"/>
         <v>7.8970654287720699E-3</v>
@@ -6660,21 +6073,17 @@
         <f t="shared" si="2"/>
         <v>4.5491932055458255E-2</v>
       </c>
-      <c r="I52"/>
-      <c r="J52"/>
-    </row>
-    <row r="53" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>167</v>
-      </c>
-      <c r="C53"/>
+        <v>159</v>
+      </c>
       <c r="D53" s="21">
         <v>5.9999999999999997E-15</v>
       </c>
       <c r="E53" s="21">
         <v>5.7528964624142196</v>
       </c>
-      <c r="F53"/>
       <c r="G53" s="47">
         <f t="shared" si="3"/>
         <v>2.6984373241125866E-19</v>
@@ -6683,22 +6092,18 @@
         <f t="shared" si="2"/>
         <v>2.7125122152431687E-4</v>
       </c>
-      <c r="I53"/>
-      <c r="J53"/>
-    </row>
-    <row r="54" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="67"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
       <c r="B54" t="s">
-        <v>168</v>
-      </c>
-      <c r="C54"/>
+        <v>160</v>
+      </c>
       <c r="D54" s="21">
         <v>909.40773405503796</v>
       </c>
       <c r="E54" s="21">
         <v>933.01626510854805</v>
       </c>
-      <c r="F54"/>
       <c r="G54" s="47">
         <f t="shared" si="3"/>
         <v>4.0899662873512793E-2</v>
@@ -6707,21 +6112,17 @@
         <f t="shared" si="2"/>
         <v>4.3992066129857489E-2</v>
       </c>
-      <c r="I54"/>
-      <c r="J54"/>
-    </row>
-    <row r="55" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>169</v>
-      </c>
-      <c r="C55"/>
+        <v>161</v>
+      </c>
       <c r="D55" s="21">
         <v>5318.5873073982002</v>
       </c>
       <c r="E55" s="21">
         <v>6739.5564586749369</v>
       </c>
-      <c r="F55"/>
       <c r="G55" s="47">
         <f t="shared" si="3"/>
         <v>0.23919790836391278</v>
@@ -6730,27 +6131,24 @@
         <f t="shared" si="2"/>
         <v>0.3177726096569628</v>
       </c>
-      <c r="I55"/>
-      <c r="J55"/>
-    </row>
-    <row r="56" spans="1:10" s="66" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A56" s="67"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="72" t="s">
-        <v>226</v>
+    </row>
+    <row r="56" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="60"/>
+      <c r="J56" s="67" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="67"/>
       <c r="B57" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D57" s="29">
         <v>22235.091200323401</v>
@@ -6766,7 +6164,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J57" s="69"/>
+      <c r="J57" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6786,109 +6184,103 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="66" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="2" max="2" width="47.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.83203125" customWidth="1"/>
     <col min="7" max="7" width="3.83203125" customWidth="1"/>
     <col min="10" max="10" width="3.83203125" customWidth="1"/>
     <col min="14" max="14" width="87.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66"/>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="66"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="B4" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="63" t="s">
-        <v>211</v>
+      <c r="B4" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="61" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="64" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="62" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>208</v>
-      </c>
-      <c r="I6" s="56"/>
-      <c r="K6" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="L6" s="56"/>
+        <v>165</v>
+      </c>
+      <c r="H6" s="98" t="s">
+        <v>200</v>
+      </c>
+      <c r="I6" s="98"/>
+      <c r="K6" s="98" t="s">
+        <v>201</v>
+      </c>
+      <c r="L6" s="98"/>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
-      <c r="D7" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="I7" s="57" t="s">
-        <v>207</v>
-      </c>
-      <c r="K7" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="L7" s="57" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="66"/>
+      <c r="A7"/>
+      <c r="D7" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="H7" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="L7" s="55" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D8" s="46">
         <v>19611.958676509399</v>
@@ -6916,10 +6308,9 @@
         <v>0.34261038044637021</v>
       </c>
     </row>
-    <row r="9" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D9" s="46">
         <v>106.438619710995</v>
@@ -6942,30 +6333,30 @@
         <f t="shared" ref="K9:K37" si="2">H9/E9</f>
         <v>0.44876250841084031</v>
       </c>
-      <c r="L9" s="52">
+      <c r="L9" s="51">
         <f t="shared" ref="L9:L37" si="3">I9/D9</f>
         <v>5.7039390992523538E-2</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="66"/>
+      <c r="A10"/>
       <c r="B10" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D10" s="58">
+        <v>170</v>
+      </c>
+      <c r="D10" s="56">
         <v>19718.397296220399</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="56">
         <v>26443.72911372417</v>
       </c>
-      <c r="F10" s="58">
+      <c r="F10" s="56">
         <v>25380</v>
       </c>
-      <c r="H10" s="58">
+      <c r="H10" s="56">
         <f t="shared" si="0"/>
         <v>-1063.72911372417</v>
       </c>
-      <c r="I10" s="58">
+      <c r="I10" s="56">
         <f t="shared" si="1"/>
         <v>6725.3318175037712</v>
       </c>
@@ -6973,32 +6364,32 @@
         <f t="shared" si="2"/>
         <v>-4.0226138648958541E-2</v>
       </c>
-      <c r="L10" s="60">
+      <c r="L10" s="58">
         <f t="shared" si="3"/>
         <v>0.34106888691165965</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="67" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="66"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="63" t="s">
-        <v>228</v>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="61" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D12" s="46">
         <v>9578.5995662458608</v>
@@ -7021,14 +6412,14 @@
         <f t="shared" si="2"/>
         <v>-0.13863380010519036</v>
       </c>
-      <c r="L12" s="52">
+      <c r="L12" s="51">
         <f t="shared" si="3"/>
         <v>0.26328952144190787</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D13" s="46">
         <v>1095.9360651878751</v>
@@ -7051,14 +6442,14 @@
         <f t="shared" si="2"/>
         <v>0.51878382085465036</v>
       </c>
-      <c r="L13" s="52">
+      <c r="L13" s="51">
         <f t="shared" si="3"/>
         <v>-3.9345364583309873E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D14" s="46">
         <v>3905.2455895687799</v>
@@ -7081,15 +6472,15 @@
         <f t="shared" si="2"/>
         <v>4.9589564503453976E-2</v>
       </c>
-      <c r="L14" s="52">
+      <c r="L14" s="51">
         <f t="shared" si="3"/>
         <v>0.73704927764072414</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
+      <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D15" s="46">
         <v>14579.781221002517</v>
@@ -7112,15 +6503,15 @@
         <f t="shared" si="2"/>
         <v>-3.9922056812676757E-2</v>
       </c>
-      <c r="L15" s="52">
+      <c r="L15" s="51">
         <f t="shared" si="3"/>
         <v>0.36750780079734169</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="67"/>
+      <c r="A16" s="1"/>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D16" s="46">
         <v>988.30994668606195</v>
@@ -7143,14 +6534,14 @@
         <f t="shared" si="2"/>
         <v>0.18919260304074945</v>
       </c>
-      <c r="L16" s="52">
+      <c r="L16" s="51">
         <f t="shared" si="3"/>
         <v>-7.1719163043419534E-2</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D17" s="46">
         <v>1670.1849614594801</v>
@@ -7173,14 +6564,14 @@
         <f t="shared" si="2"/>
         <v>5.8722536932533265E-2</v>
       </c>
-      <c r="L17" s="52">
+      <c r="L17" s="51">
         <f t="shared" si="3"/>
         <v>-0.24389052497015468</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D18" s="46">
         <v>-564.52354783833903</v>
@@ -7203,14 +6594,14 @@
         <f t="shared" si="2"/>
         <v>-1.648789386639455</v>
       </c>
-      <c r="L18" s="52">
+      <c r="L18" s="51">
         <f t="shared" si="3"/>
         <v>-0.20547568974460106</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D19" s="46">
         <v>-290.03781314996002</v>
@@ -7233,14 +6624,14 @@
         <f t="shared" si="2"/>
         <v>5.3292306275412961E-2</v>
       </c>
-      <c r="L19" s="52">
+      <c r="L19" s="51">
         <f t="shared" si="3"/>
         <v>-4.4172948546474036E-2</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D20" s="46">
         <v>1314.91151949306</v>
@@ -7268,117 +6659,107 @@
         <v>0.3045297189441295</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="66"/>
+    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21"/>
       <c r="B21" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="58">
+        <v>180</v>
+      </c>
+      <c r="D21" s="56">
         <v>17697.626287652802</v>
       </c>
-      <c r="E21" s="58">
+      <c r="E21" s="56">
         <v>23106.823897271992</v>
       </c>
-      <c r="F21" s="58">
+      <c r="F21" s="56">
         <v>23482</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="58">
+      <c r="H21" s="56">
         <f t="shared" si="0"/>
         <v>375.17610272800812</v>
       </c>
-      <c r="I21" s="58">
+      <c r="I21" s="56">
         <f t="shared" si="1"/>
         <v>5409.1976096191902</v>
       </c>
-      <c r="J21" s="1"/>
       <c r="K21" s="48">
         <f t="shared" si="2"/>
         <v>1.6236593328272247E-2</v>
       </c>
-      <c r="L21" s="60">
+      <c r="L21" s="58">
         <f t="shared" si="3"/>
         <v>0.30564537422699756</v>
       </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="66"/>
+    </row>
+    <row r="22" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22"/>
       <c r="B22" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="58">
+        <v>181</v>
+      </c>
+      <c r="D22" s="56">
         <v>2019.7710085675401</v>
       </c>
-      <c r="E22" s="58">
+      <c r="E22" s="56">
         <v>3336.9052164521781</v>
       </c>
-      <c r="F22" s="58">
+      <c r="F22" s="56">
         <v>1898</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="58">
+      <c r="H22" s="56">
         <f t="shared" si="0"/>
         <v>-1438.9052164521781</v>
       </c>
-      <c r="I22" s="58">
+      <c r="I22" s="56">
         <f t="shared" si="1"/>
         <v>1317.134207884638</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="60">
+      <c r="K22" s="58">
         <f t="shared" si="2"/>
         <v>-0.43120949595986208</v>
       </c>
-      <c r="L22" s="61">
+      <c r="L22" s="59">
         <f t="shared" si="3"/>
         <v>0.65212056332008383</v>
       </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" s="67" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="66"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="63" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="67" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="66"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="63" t="s">
-        <v>230</v>
+    </row>
+    <row r="23" spans="1:14" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="61" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="1" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="61" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D25" s="46">
         <v>11.7882803539636</v>
@@ -7401,14 +6782,14 @@
         <f t="shared" si="2"/>
         <v>1.3220259332875328</v>
       </c>
-      <c r="L25" s="52">
+      <c r="L25" s="51">
         <f t="shared" si="3"/>
         <v>4.5164466903517706</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D26" s="46">
         <v>32.658913661851997</v>
@@ -7431,14 +6812,14 @@
         <f t="shared" si="2"/>
         <v>-3.5737701790383745</v>
       </c>
-      <c r="L26" s="52">
+      <c r="L26" s="51">
         <f t="shared" si="3"/>
         <v>-1.0594837726515995</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D27" s="46">
         <v>308.12834386532467</v>
@@ -7461,15 +6842,15 @@
         <f t="shared" si="2"/>
         <v>0.1466597733389941</v>
       </c>
-      <c r="L27" s="52">
+      <c r="L27" s="51">
         <f t="shared" si="3"/>
         <v>8.4008149594351142E-2</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="67"/>
+      <c r="A28" s="1"/>
       <c r="B28" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D28" s="46">
         <v>6.8771546861696899</v>
@@ -7492,15 +6873,15 @@
         <f t="shared" si="2"/>
         <v>-0.47971431589438523</v>
       </c>
-      <c r="L28" s="52">
+      <c r="L28" s="51">
         <f t="shared" si="3"/>
         <v>2.6332282563221496</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="67"/>
+      <c r="A29" s="1"/>
       <c r="B29" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D29" s="46">
         <v>360.45269256730995</v>
@@ -7523,15 +6904,15 @@
         <f t="shared" si="2"/>
         <v>0.30778833119055093</v>
       </c>
-      <c r="L29" s="52">
+      <c r="L29" s="51">
         <f t="shared" si="3"/>
         <v>0.17099042967849298</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="67"/>
+      <c r="A30" s="1"/>
       <c r="B30" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D30" s="46">
         <v>54.933562593540501</v>
@@ -7554,15 +6935,15 @@
         <f t="shared" si="2"/>
         <v>0.8803526174325621</v>
       </c>
-      <c r="L30" s="52">
+      <c r="L30" s="51">
         <f t="shared" si="3"/>
         <v>-0.23519621746654107</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="67"/>
+      <c r="A31" s="1"/>
       <c r="B31" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D31" s="46">
         <v>352.16691028680509</v>
@@ -7585,14 +6966,14 @@
         <f t="shared" si="2"/>
         <v>-0.33731036983374652</v>
       </c>
-      <c r="L31" s="52">
+      <c r="L31" s="51">
         <f t="shared" si="3"/>
         <v>0.49543212201792958</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D32" s="46">
         <v>55.693827053204203</v>
@@ -7615,14 +6996,14 @@
         <f t="shared" si="2"/>
         <v>1.1888006178367874</v>
       </c>
-      <c r="L32" s="52">
+      <c r="L32" s="51">
         <f t="shared" si="3"/>
         <v>-0.41756819279465063</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D33" s="46">
         <v>30.45685108055946</v>
@@ -7645,14 +7026,14 @@
         <f t="shared" si="2"/>
         <v>-0.36912129207492494</v>
       </c>
-      <c r="L33" s="52">
+      <c r="L33" s="51">
         <f t="shared" si="3"/>
         <v>-0.11525513380395658</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D34" s="46">
         <v>493.25115101410927</v>
@@ -7675,50 +7056,45 @@
         <f t="shared" si="2"/>
         <v>-0.17839563343975642</v>
       </c>
-      <c r="L34" s="52">
+      <c r="L34" s="51">
         <f t="shared" si="3"/>
         <v>0.27326515933687218</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="66"/>
+    <row r="35" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35"/>
       <c r="B35" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="58">
+        <v>192</v>
+      </c>
+      <c r="D35" s="56">
         <v>-132.7984584468</v>
       </c>
-      <c r="E35" s="58">
+      <c r="E35" s="56">
         <v>-205.95285204091141</v>
       </c>
-      <c r="F35" s="58">
+      <c r="F35" s="56">
         <v>36</v>
       </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="58">
+      <c r="H35" s="56">
         <f t="shared" si="0"/>
         <v>241.95285204091141</v>
       </c>
-      <c r="I35" s="58">
+      <c r="I35" s="56">
         <f t="shared" si="1"/>
         <v>-73.154393594111411</v>
       </c>
-      <c r="J35" s="1"/>
       <c r="K35" s="48">
         <f t="shared" si="2"/>
         <v>-1.1747972880358502</v>
       </c>
-      <c r="L35" s="61">
+      <c r="L35" s="59">
         <f t="shared" si="3"/>
         <v>0.55086779206414949</v>
       </c>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D36" s="46">
         <v>67.889564361357998</v>
@@ -7741,50 +7117,45 @@
         <f t="shared" si="2"/>
         <v>-1.0260703610801782</v>
       </c>
-      <c r="L36" s="52">
+      <c r="L36" s="51">
         <f t="shared" si="3"/>
         <v>-2.1300038613257035</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="66"/>
+    <row r="37" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37"/>
       <c r="B37" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="58">
+        <v>194</v>
+      </c>
+      <c r="D37" s="56">
         <v>1954.8621144821</v>
       </c>
-      <c r="E37" s="58">
+      <c r="E37" s="56">
         <v>3054.2368945392127</v>
       </c>
-      <c r="F37" s="58">
+      <c r="F37" s="56">
         <v>1936</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="58">
+      <c r="H37" s="56">
         <f t="shared" si="0"/>
         <v>-1118.2368945392127</v>
       </c>
-      <c r="I37" s="58">
+      <c r="I37" s="56">
         <f t="shared" si="1"/>
         <v>1099.3747800571127</v>
       </c>
-      <c r="J37" s="1"/>
-      <c r="K37" s="60">
+      <c r="K37" s="58">
         <f t="shared" si="2"/>
         <v>-0.36612644439550557</v>
       </c>
-      <c r="L37" s="60">
+      <c r="L37" s="58">
         <f t="shared" si="3"/>
         <v>0.56237970540872095</v>
       </c>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D38" s="46">
         <v>129</v>
@@ -7796,64 +7167,55 @@
         <v>345</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="58">
+        <v>209</v>
+      </c>
+      <c r="D39" s="56">
         <f>D37-D38</f>
         <v>1825.8621144821</v>
       </c>
-      <c r="E39" s="58">
+      <c r="E39" s="56">
         <f t="shared" ref="E39:F39" si="4">E37-E38</f>
         <v>1831.4595903242196</v>
       </c>
-      <c r="F39" s="58">
+      <c r="F39" s="56">
         <f t="shared" si="4"/>
         <v>1591</v>
       </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="67"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="63" t="s">
-        <v>231</v>
+      <c r="A40" s="1"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="61" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="67"/>
+      <c r="A47" s="1"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="67"/>
+      <c r="A48" s="1"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="67"/>
+      <c r="A57" s="1"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="67"/>
+      <c r="A59" s="1"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="67"/>
+      <c r="A60" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7877,7 +7239,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="66" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="2" max="2" width="46.5" customWidth="1"/>
     <col min="3" max="3" width="3.83203125" customWidth="1"/>
     <col min="7" max="7" width="3.83203125" customWidth="1"/>
@@ -7886,12 +7248,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -7899,35 +7261,35 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>203</v>
+      <c r="D5" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>195</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="I5" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="J5" s="57" t="s">
-        <v>203</v>
+      <c r="H5" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" s="55" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D6" s="46">
         <v>19611.958676509399</v>
@@ -7953,7 +7315,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D7" s="46">
         <v>106.438619710995</v>
@@ -7965,30 +7327,30 @@
         <v>163</v>
       </c>
       <c r="H7" s="47">
-        <f t="shared" ref="H7:H34" si="0">D7/D$6</f>
+        <f t="shared" ref="H7:H32" si="0">D7/D$6</f>
         <v>5.42723047027852E-3</v>
       </c>
       <c r="I7" s="47">
-        <f t="shared" ref="I7:I34" si="1">E7/E$6</f>
+        <f t="shared" ref="I7:I32" si="1">E7/E$6</f>
         <v>4.2728675978000357E-3</v>
       </c>
       <c r="J7" s="47">
-        <f t="shared" ref="J7:J34" si="2">F7/F$6</f>
+        <f t="shared" ref="J7:J32" si="2">F7/F$6</f>
         <v>6.463893405242495E-3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="58">
+      <c r="D8" s="56">
         <v>19718.397296220399</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="56">
         <v>26443.72911372417</v>
       </c>
-      <c r="F8" s="58">
+      <c r="F8" s="56">
         <v>25380</v>
       </c>
       <c r="G8" s="1"/>
@@ -8007,7 +7369,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D9" s="46">
         <v>9578.5995662458608</v>
@@ -8033,7 +7395,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D10" s="46">
         <v>1095.9360651878751</v>
@@ -8059,7 +7421,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D11" s="46">
         <v>3905.2455895687799</v>
@@ -8084,9 +7446,9 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="67"/>
+      <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D12" s="46">
         <v>14579.781221002517</v>
@@ -8111,9 +7473,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="67"/>
+      <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D13" s="46">
         <v>988.30994668606195</v>
@@ -8139,7 +7501,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D14" s="46">
         <v>1670.1849614594801</v>
@@ -8165,7 +7527,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D15" s="46">
         <v>-564.52354783833903</v>
@@ -8191,7 +7553,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D16" s="46">
         <v>-290.03781314996002</v>
@@ -8217,7 +7579,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D17" s="46">
         <v>1314.91151949306</v>
@@ -8243,16 +7605,16 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="58">
+      <c r="D18" s="56">
         <v>17697.626287652802</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="56">
         <v>23106.823897271992</v>
       </c>
-      <c r="F18" s="58">
+      <c r="F18" s="56">
         <v>23482</v>
       </c>
       <c r="G18" s="1"/>
@@ -8271,16 +7633,16 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="58">
+      <c r="D19" s="56">
         <v>2019.7710085675401</v>
       </c>
-      <c r="E19" s="58">
+      <c r="E19" s="56">
         <v>3336.9052164521781</v>
       </c>
-      <c r="F19" s="58">
+      <c r="F19" s="56">
         <v>1898</v>
       </c>
       <c r="G19" s="1"/>
@@ -8299,7 +7661,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D20" s="46">
         <v>11.7882803539636</v>
@@ -8325,7 +7687,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D21" s="46">
         <v>32.658913661851997</v>
@@ -8351,7 +7713,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D22" s="46">
         <v>308.12834386532467</v>
@@ -8376,9 +7738,9 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="67"/>
+      <c r="A23" s="1"/>
       <c r="B23" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D23" s="46">
         <v>6.8771546861696899</v>
@@ -8403,9 +7765,9 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="67"/>
+      <c r="A24" s="1"/>
       <c r="B24" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D24" s="46">
         <v>360.45269256730995</v>
@@ -8430,9 +7792,9 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="67"/>
+      <c r="A25" s="1"/>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D25" s="46">
         <v>54.933562593540501</v>
@@ -8457,9 +7819,9 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="67"/>
+      <c r="A26" s="1"/>
       <c r="B26" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D26" s="46">
         <v>352.16691028680509</v>
@@ -8485,7 +7847,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D27" s="46">
         <v>55.693827053204203</v>
@@ -8511,7 +7873,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D28" s="46">
         <v>30.45685108055946</v>
@@ -8537,7 +7899,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D29" s="46">
         <v>493.25115101410927</v>
@@ -8563,16 +7925,16 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="58">
+      <c r="D30" s="56">
         <v>-132.7984584468</v>
       </c>
-      <c r="E30" s="58">
+      <c r="E30" s="56">
         <v>-205.95285204091141</v>
       </c>
-      <c r="F30" s="58">
+      <c r="F30" s="56">
         <v>36</v>
       </c>
       <c r="G30" s="1"/>
@@ -8591,7 +7953,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D31" s="46">
         <v>67.889564361357998</v>
@@ -8617,16 +7979,16 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="58">
+      <c r="D32" s="56">
         <v>1954.8621144821</v>
       </c>
-      <c r="E32" s="58">
+      <c r="E32" s="56">
         <v>3054.2368945392127</v>
       </c>
-      <c r="F32" s="58">
+      <c r="F32" s="56">
         <v>1936</v>
       </c>
       <c r="G32" s="1"/>
@@ -8645,7 +8007,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D33" s="46">
         <v>129</v>
@@ -8661,19 +8023,18 @@
       <c r="J33" s="47"/>
     </row>
     <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="67"/>
       <c r="B34" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D34" s="58">
+        <v>208</v>
+      </c>
+      <c r="D34" s="56">
         <f>D32-D33</f>
         <v>1825.8621144821</v>
       </c>
-      <c r="E34" s="58">
+      <c r="E34" s="56">
         <f t="shared" ref="E34:F34" si="3">E32-E33</f>
         <v>1831.4595903242196</v>
       </c>
-      <c r="F34" s="58">
+      <c r="F34" s="56">
         <f t="shared" si="3"/>
         <v>1591</v>
       </c>
@@ -8681,97 +8042,97 @@
       <c r="I34" s="47"/>
       <c r="J34" s="47"/>
       <c r="L34" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="61" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="61" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="61" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+    </row>
+    <row r="39" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="61" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="66" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="67"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="63" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="66" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="63" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="66" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="63" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-    </row>
-    <row r="39" spans="1:12" s="66" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="63" t="s">
-        <v>220</v>
-      </c>
-    </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="67"/>
+      <c r="A40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="67"/>
+      <c r="A41" s="1"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="67"/>
+      <c r="A50" s="1"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="67"/>
+      <c r="A52" s="1"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="67"/>
+      <c r="A53" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8797,10 +8158,10 @@
     <row r="1" spans="2:10" ht="4" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G2" s="99" t="s">
-        <v>269</v>
+        <v>228</v>
+      </c>
+      <c r="G2" s="93" t="s">
+        <v>261</v>
       </c>
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
@@ -8808,221 +8169,221 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G3" t="s">
-        <v>252</v>
-      </c>
-      <c r="J3" s="100">
+        <v>244</v>
+      </c>
+      <c r="J3" s="94">
         <v>0.58660000000000001</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G4" t="s">
-        <v>253</v>
-      </c>
-      <c r="J4" s="100">
+        <v>245</v>
+      </c>
+      <c r="J4" s="94">
         <v>6.3100000000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G5" t="s">
-        <v>254</v>
-      </c>
-      <c r="J5" s="100">
+        <v>246</v>
+      </c>
+      <c r="J5" s="94">
         <v>7.1499999999999994E-2</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G6" t="s">
-        <v>255</v>
-      </c>
-      <c r="J6" s="100">
+        <v>247</v>
+      </c>
+      <c r="J6" s="94">
         <v>0.1313</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G7" t="s">
-        <v>256</v>
-      </c>
-      <c r="J7" s="101">
+        <v>248</v>
+      </c>
+      <c r="J7" s="95">
         <v>1.32</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G8" t="s">
-        <v>257</v>
-      </c>
-      <c r="J8" s="101">
+        <v>249</v>
+      </c>
+      <c r="J8" s="95">
         <v>0.87</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G9" t="s">
-        <v>258</v>
-      </c>
-      <c r="J9" s="102">
+        <v>250</v>
+      </c>
+      <c r="J9" s="96">
         <v>0.21759999999999999</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G10" t="s">
-        <v>259</v>
-      </c>
-      <c r="J10" s="101">
+        <v>251</v>
+      </c>
+      <c r="J10" s="95">
         <v>21.14</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" s="60"/>
+      <c r="E23" s="52" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="C24" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" s="83">
+        <v>0.58660000000000001</v>
+      </c>
+      <c r="E24" s="61" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C25" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="D25" s="83">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C26" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" s="83">
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C27" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="D27" s="83">
+        <v>0.1313</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C28" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="D28" s="84">
+        <v>1.32</v>
+      </c>
+      <c r="E28" s="61" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="C29" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" s="84">
+        <v>0.87</v>
+      </c>
+      <c r="E29" s="61" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="C30" s="60" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C23" s="53" t="s">
+      <c r="D30" s="85">
+        <v>0.21759999999999999</v>
+      </c>
+      <c r="E30" s="61" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="60" t="s">
         <v>251</v>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="53" t="s">
+      <c r="D31" s="84">
+        <v>21.14</v>
+      </c>
+      <c r="E31" s="61" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="C24" s="62" t="s">
-        <v>252</v>
-      </c>
-      <c r="D24" s="89">
-        <v>0.58660000000000001</v>
-      </c>
-      <c r="E24" s="63" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C25" s="62" t="s">
-        <v>253</v>
-      </c>
-      <c r="D25" s="89">
-        <v>6.3100000000000003E-2</v>
-      </c>
-      <c r="E25" s="63" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C26" s="62" t="s">
-        <v>254</v>
-      </c>
-      <c r="D26" s="89">
-        <v>7.1499999999999994E-2</v>
-      </c>
-      <c r="E26" s="63" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C27" s="62" t="s">
-        <v>255</v>
-      </c>
-      <c r="D27" s="89">
-        <v>0.1313</v>
-      </c>
-      <c r="E27" s="63" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C28" s="62" t="s">
-        <v>256</v>
-      </c>
-      <c r="D28" s="90">
-        <v>1.32</v>
-      </c>
-      <c r="E28" s="63" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="C29" s="62" t="s">
-        <v>257</v>
-      </c>
-      <c r="D29" s="90">
-        <v>0.87</v>
-      </c>
-      <c r="E29" s="63" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="C30" s="62" t="s">
-        <v>258</v>
-      </c>
-      <c r="D30" s="91">
-        <v>0.21759999999999999</v>
-      </c>
-      <c r="E30" s="63" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="D31" s="90">
-        <v>21.14</v>
-      </c>
-      <c r="E31" s="63" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>
